--- a/Burndown4.xlsx
+++ b/Burndown4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Desktop\comp255Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFA6BFE-1DDD-4B81-A147-B9DDC9AE22B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C3134-62D3-4522-89D5-C1F064B4C749}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A312CE9-1D41-4F0B-BD3B-06419D78015C}"/>
+    <workbookView xWindow="8895" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{6A312CE9-1D41-4F0B-BD3B-06419D78015C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Day of the Sprint</t>
   </si>
   <si>
-    <t>Forecast</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Average Productivity%</t>
+  </si>
+  <si>
+    <t>Estimate</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Forecast</c:v>
+                  <c:v>Estimate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -257,28 +257,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,27 +281,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.2</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>3.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3999999999999995</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -368,28 +350,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,27 +374,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -479,28 +443,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,28 +467,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,28 +551,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
                         <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -644,28 +581,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
                         <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1755,7 +1683,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,19 +1701,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43709</v>
+        <v>43717</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,18 +1724,18 @@
         <v>43721</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">Productive_Hours-(Day_of_the_Sprint*Average_Daily_Productive_Hours)</f>
-        <v>11.2</v>
+        <f t="shared" ref="E3:E10" si="0">Productive_Hours-(Day_of_the_Sprint*Average_Daily_Productive_Hours)</f>
+        <v>6.4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">Total_Available_Hours-(Day_of_the_Sprint*Average_Daily_Available_Hours)</f>
-        <v>14</v>
+        <f t="shared" ref="F3:F10" si="1">Total_Available_Hours-(Day_of_the_Sprint*Average_Daily_Available_Hours)</f>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,21 +1743,21 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,18 +1768,18 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3.1999999999999993</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1860,21 +1788,21 @@
       </c>
       <c r="B6">
         <f>Working_Days*1*Work_Hours_Per_Day</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,40 +1814,26 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>80</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,21 +1842,7 @@
       </c>
       <c r="B9">
         <f>Total_Available_Hours*Average_Productivity/100</f>
-        <v>11.2</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1951,21 +1851,7 @@
       </c>
       <c r="B10">
         <f>Productive_Hours/Working_Days</f>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
